--- a/mkpsub.xlsx
+++ b/mkpsub.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="mkpsub"/>
   </sheets>
   <definedNames>
-    <definedName name="mkpsub">'mkpsub'!$A$1:$E$787</definedName>
+    <definedName name="mkpsub">'mkpsub'!$A$1:$E$788</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E787"/>
+  <dimension ref="A1:E788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14295,6 +14295,25 @@
         <v>15</v>
       </c>
     </row>
+    <row outlineLevel="0" r="788">
+      <c r="A788" s="0">
+        <v>1128</v>
+      </c>
+      <c r="B788" s="0">
+        <v>7944</v>
+      </c>
+      <c r="C788" s="0" t="inlineStr">
+        <is>
+          <t>LIXA P/ LIXADEIRAS FIBRODISCO</t>
+        </is>
+      </c>
+      <c r="D788" s="0">
+        <v>100</v>
+      </c>
+      <c r="E788" s="0">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
